--- a/现场总管基线产品-测试方案.xlsx
+++ b/现场总管基线产品-测试方案.xlsx
@@ -5,27 +5,28 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="11835" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="11832" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="需求原件" sheetId="2" r:id="rId1"/>
-    <sheet name="现场总管基线产品-需求列表" sheetId="1" r:id="rId2"/>
-    <sheet name="计划" sheetId="3" r:id="rId3"/>
-    <sheet name="附表" sheetId="4" r:id="rId4"/>
+    <sheet name="作业许可-需求原件" sheetId="2" r:id="rId1"/>
+    <sheet name="作业许可-需求列表" sheetId="1" r:id="rId2"/>
+    <sheet name="任务安排" sheetId="3" r:id="rId3"/>
+    <sheet name="时间计划" sheetId="5" r:id="rId4"/>
+    <sheet name="附表" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'现场总管基线产品-需求列表'!$A$1:$G$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'作业许可-需求列表'!$A$1:$G$75</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="297">
   <si>
     <t>编号</t>
   </si>
@@ -3920,14 +3921,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>所属迭代</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>上线时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>系统公共</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3971,18 +3964,23 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>迭代1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>迭代2</t>
-  </si>
-  <si>
     <t>实际结果</t>
+  </si>
+  <si>
+    <t>功能需求数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能详情</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>《现场总管基线产品-作业许可-需求列表》</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4368,7 +4366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -4496,6 +4494,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -4627,7 +4636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4685,6 +4694,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4730,87 +4742,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5107,19 +5039,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1" tint="0.34998626667073579"/>
+  </sheetPr>
   <dimension ref="A1:AH75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="41.875" customWidth="1"/>
-    <col min="9" max="9" width="77.375" customWidth="1"/>
+    <col min="8" max="8" width="41.88671875" customWidth="1"/>
+    <col min="9" max="9" width="77.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5223,7 +5158,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="391.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>914</v>
       </c>
@@ -5306,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="324" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:34" ht="345.6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>916</v>
       </c>
@@ -5386,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>933</v>
       </c>
@@ -5469,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="243" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:34" ht="259.2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>934</v>
       </c>
@@ -5552,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="243" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:34" ht="259.2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>950</v>
       </c>
@@ -5632,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="189" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:34" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>997</v>
       </c>
@@ -5712,7 +5647,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="189" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:34" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>998</v>
       </c>
@@ -5798,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1000</v>
       </c>
@@ -5878,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1077</v>
       </c>
@@ -5961,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="108" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:34" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1078</v>
       </c>
@@ -6044,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1079</v>
       </c>
@@ -6130,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1534</v>
       </c>
@@ -6210,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:34" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1577</v>
       </c>
@@ -6290,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="229.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:34" ht="244.8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1958</v>
       </c>
@@ -6361,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="108" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:34" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>817</v>
       </c>
@@ -6429,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="351" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:34" ht="374.4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>917</v>
       </c>
@@ -6500,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="337.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:34" ht="360" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>918</v>
       </c>
@@ -6571,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>919</v>
       </c>
@@ -6642,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="162" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:34" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>920</v>
       </c>
@@ -6710,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>921</v>
       </c>
@@ -6784,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="337.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:34" ht="360" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>922</v>
       </c>
@@ -6855,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>926</v>
       </c>
@@ -6935,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>927</v>
       </c>
@@ -7015,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="405" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>928</v>
       </c>
@@ -7098,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="351" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:34" ht="374.4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>929</v>
       </c>
@@ -7178,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>930</v>
       </c>
@@ -7258,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:34" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>931</v>
       </c>
@@ -7338,7 +7273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="108" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:34" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>932</v>
       </c>
@@ -7418,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:34" ht="144" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>935</v>
       </c>
@@ -7498,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="189" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:34" ht="216" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>949</v>
       </c>
@@ -7572,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>990</v>
       </c>
@@ -7655,7 +7590,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>992</v>
       </c>
@@ -7732,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>995</v>
       </c>
@@ -7812,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="189" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:34" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>996</v>
       </c>
@@ -7895,7 +7830,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1001</v>
       </c>
@@ -7966,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="310.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:34" ht="331.2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1075</v>
       </c>
@@ -8043,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="54" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:34" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1084</v>
       </c>
@@ -8120,7 +8055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1192</v>
       </c>
@@ -8191,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1208</v>
       </c>
@@ -8262,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1232</v>
       </c>
@@ -8333,7 +8268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1233</v>
       </c>
@@ -8404,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="283.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:34" ht="302.39999999999998" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1234</v>
       </c>
@@ -8478,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="270" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:34" ht="302.39999999999998" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1275</v>
       </c>
@@ -8549,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1278</v>
       </c>
@@ -8620,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1284</v>
       </c>
@@ -8691,7 +8626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1287</v>
       </c>
@@ -8762,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1303</v>
       </c>
@@ -8833,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:33" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1418</v>
       </c>
@@ -8904,7 +8839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="405" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:33" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1419</v>
       </c>
@@ -8972,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="378" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:33" ht="403.2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1420</v>
       </c>
@@ -9043,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1421</v>
       </c>
@@ -9117,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:33" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1425</v>
       </c>
@@ -9191,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:33" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1527</v>
       </c>
@@ -9262,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="270" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:33" ht="288" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1528</v>
       </c>
@@ -9330,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:33" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1552</v>
       </c>
@@ -9404,7 +9339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:33" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1639</v>
       </c>
@@ -9472,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:33" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1640</v>
       </c>
@@ -9540,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:33" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1661</v>
       </c>
@@ -9614,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="283.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:33" ht="316.8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1667</v>
       </c>
@@ -9685,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="270" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:33" ht="302.39999999999998" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1668</v>
       </c>
@@ -9756,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="189" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:33" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1670</v>
       </c>
@@ -9824,7 +9759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:33" ht="72" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1867</v>
       </c>
@@ -9895,7 +9830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:33" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>621</v>
       </c>
@@ -9969,7 +9904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34" ht="378" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:34" ht="403.2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>987</v>
       </c>
@@ -10046,7 +9981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>988</v>
       </c>
@@ -10120,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:34" ht="216" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>991</v>
       </c>
@@ -10197,7 +10132,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1017</v>
       </c>
@@ -10274,7 +10209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34" ht="324" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:34" ht="345.6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1076</v>
       </c>
@@ -10348,7 +10283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1080</v>
       </c>
@@ -10425,7 +10360,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1193</v>
       </c>
@@ -10499,7 +10434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1194</v>
       </c>
@@ -10573,7 +10508,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1230</v>
       </c>
@@ -10644,7 +10579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1277</v>
       </c>
@@ -10715,7 +10650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34" ht="297" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:34" ht="316.8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1669</v>
       </c>
@@ -10794,25 +10729,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <sheetPr filterMode="1">
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A75" sqref="A3:A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="88.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="88.33203125" style="9" customWidth="1"/>
     <col min="3" max="4" width="9" style="9"/>
-    <col min="5" max="5" width="12.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="9" customWidth="1"/>
     <col min="6" max="8" width="9" style="9"/>
-    <col min="9" max="9" width="48.25" style="9" customWidth="1"/>
+    <col min="9" max="9" width="48.21875" style="9" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10841,7 +10778,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1958</v>
       </c>
@@ -10862,7 +10799,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1867</v>
       </c>
@@ -10887,7 +10824,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1667</v>
       </c>
@@ -10912,7 +10849,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1668</v>
       </c>
@@ -10935,7 +10872,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1670</v>
       </c>
@@ -10954,7 +10891,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1669</v>
       </c>
@@ -10973,7 +10910,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1661</v>
       </c>
@@ -10994,7 +10931,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1639</v>
       </c>
@@ -11019,7 +10956,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>1640</v>
       </c>
@@ -11044,7 +10981,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>1577</v>
       </c>
@@ -11073,7 +11010,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1552</v>
       </c>
@@ -11094,7 +11031,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>1527</v>
       </c>
@@ -11119,7 +11056,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>1528</v>
       </c>
@@ -11144,7 +11081,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>1534</v>
       </c>
@@ -11173,7 +11110,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1421</v>
       </c>
@@ -11194,7 +11131,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>1418</v>
       </c>
@@ -11219,7 +11156,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>1419</v>
       </c>
@@ -11244,7 +11181,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>1420</v>
       </c>
@@ -11269,7 +11206,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>1425</v>
       </c>
@@ -11296,7 +11233,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>1303</v>
       </c>
@@ -11321,7 +11258,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>1287</v>
       </c>
@@ -11346,7 +11283,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>933</v>
       </c>
@@ -11369,7 +11306,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>934</v>
       </c>
@@ -11392,7 +11329,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>1284</v>
       </c>
@@ -11415,7 +11352,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1275</v>
       </c>
@@ -11434,7 +11371,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>1278</v>
       </c>
@@ -11457,7 +11394,7 @@
       </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>1277</v>
       </c>
@@ -11480,7 +11417,7 @@
       </c>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>1232</v>
       </c>
@@ -11503,7 +11440,7 @@
       </c>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:11" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" ht="31.8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>1233</v>
       </c>
@@ -11528,7 +11465,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>1234</v>
       </c>
@@ -11553,7 +11490,7 @@
       </c>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>1230</v>
       </c>
@@ -11584,7 +11521,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>1208</v>
       </c>
@@ -11612,7 +11549,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>997</v>
       </c>
@@ -11635,7 +11572,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>1192</v>
       </c>
@@ -11660,7 +11597,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>1193</v>
       </c>
@@ -11685,7 +11622,7 @@
       </c>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>1194</v>
       </c>
@@ -11710,7 +11647,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>1084</v>
       </c>
@@ -11737,7 +11674,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>1080</v>
       </c>
@@ -11762,7 +11699,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>1077</v>
       </c>
@@ -11791,7 +11728,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>1078</v>
       </c>
@@ -11818,7 +11755,7 @@
       </c>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>1079</v>
       </c>
@@ -11845,7 +11782,7 @@
       </c>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>1076</v>
       </c>
@@ -11866,7 +11803,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>1075</v>
       </c>
@@ -11893,7 +11830,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>996</v>
       </c>
@@ -11914,7 +11851,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>1017</v>
       </c>
@@ -11937,7 +11874,7 @@
       </c>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>1000</v>
       </c>
@@ -11964,7 +11901,7 @@
       </c>
       <c r="I47" s="7"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>1001</v>
       </c>
@@ -11989,7 +11926,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>998</v>
       </c>
@@ -12016,7 +11953,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>995</v>
       </c>
@@ -12043,7 +11980,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>990</v>
       </c>
@@ -12068,7 +12005,7 @@
       </c>
       <c r="I51" s="7"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>992</v>
       </c>
@@ -12093,7 +12030,7 @@
       </c>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>991</v>
       </c>
@@ -12118,7 +12055,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>987</v>
       </c>
@@ -12145,7 +12082,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>988</v>
       </c>
@@ -12168,7 +12105,7 @@
       </c>
       <c r="I55" s="7"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>950</v>
       </c>
@@ -12197,7 +12134,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>949</v>
       </c>
@@ -12222,7 +12159,7 @@
       </c>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>926</v>
       </c>
@@ -12249,7 +12186,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>927</v>
       </c>
@@ -12276,7 +12213,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>928</v>
       </c>
@@ -12303,7 +12240,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>929</v>
       </c>
@@ -12330,7 +12267,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>930</v>
       </c>
@@ -12357,7 +12294,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>931</v>
       </c>
@@ -12382,7 +12319,7 @@
       </c>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>932</v>
       </c>
@@ -12407,7 +12344,7 @@
       </c>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>935</v>
       </c>
@@ -12434,7 +12371,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="48" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="47.4" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>917</v>
       </c>
@@ -12459,7 +12396,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>920</v>
       </c>
@@ -12484,7 +12421,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>922</v>
       </c>
@@ -12505,7 +12442,7 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
     </row>
-    <row r="69" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>918</v>
       </c>
@@ -12524,7 +12461,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>919</v>
       </c>
@@ -12543,7 +12480,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>914</v>
       </c>
@@ -12568,7 +12505,7 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>916</v>
       </c>
@@ -12593,7 +12530,7 @@
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>921</v>
       </c>
@@ -12616,7 +12553,7 @@
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
     </row>
-    <row r="74" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>817</v>
       </c>
@@ -12635,7 +12572,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>621</v>
       </c>
@@ -12694,18 +12631,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>278</v>
       </c>
@@ -12716,250 +12658,285 @@
         <v>280</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="L1" s="12" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E1" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="15">
-        <v>44042</v>
-      </c>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3"/>
-      <c r="H3" s="3">
-        <v>2</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="D3" s="3">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15">
-        <v>44058</v>
-      </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="15">
+        <v>44058</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -12967,29 +12944,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="9"/>
-    <col min="5" max="5" width="9.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="9"/>
-    <col min="9" max="9" width="5.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="18" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -13012,13 +12992,13 @@
         <v>27</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -13029,7 +13009,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -13040,7 +13020,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -13051,7 +13031,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -13062,7 +13042,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -13073,7 +13053,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -13084,7 +13064,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -13095,7 +13075,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -13106,7 +13086,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -13117,7 +13097,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -13128,7 +13108,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -13139,7 +13119,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -13150,7 +13130,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -13161,7 +13141,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -13172,7 +13152,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -13183,7 +13163,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -13194,7 +13174,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -13205,7 +13185,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -13216,7 +13196,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
